--- a/output/StructureDefinition-BRMunicipio.xlsx
+++ b/output/StructureDefinition-BRMunicipio.xlsx
@@ -831,42 +831,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.5234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.5234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="213.390625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="22.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="43.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-BRMunicipio.xlsx
+++ b/output/StructureDefinition-BRMunicipio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRMunicipio-1.0</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/BRMunicipio</t>
   </si>
   <si>
     <t>Version</t>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRMunicipio-1.0</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1338,7 +1341,7 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>18</v>
@@ -1395,15 +1398,15 @@
         <v>18</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1426,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1459,13 +1462,13 @@
         <v>18</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
         <v>9</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>18</v>
@@ -1483,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1495,18 +1498,18 @@
         <v>18</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1606,10 +1609,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1711,10 +1714,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1734,22 +1737,22 @@
         <v>18</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>18</v>
@@ -1798,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1810,18 +1813,18 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1921,10 +1924,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2026,10 +2029,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2049,22 +2052,22 @@
         <v>18</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>18</v>
@@ -2113,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2125,18 +2128,18 @@
         <v>18</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2156,19 +2159,19 @@
         <v>18</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2218,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2230,18 +2233,18 @@
         <v>18</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2261,20 +2264,20 @@
         <v>18</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>18</v>
@@ -2323,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2335,18 +2338,18 @@
         <v>18</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2366,20 +2369,20 @@
         <v>18</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>18</v>
@@ -2428,7 +2431,7 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2440,18 +2443,18 @@
         <v>18</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2471,22 +2474,22 @@
         <v>18</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>18</v>
@@ -2535,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2547,18 +2550,18 @@
         <v>18</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2578,22 +2581,22 @@
         <v>18</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>18</v>
@@ -2642,7 +2645,7 @@
         <v>18</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2654,10 +2657,10 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
